--- a/Project/3501/Furkan/IMMD Production/Gate Driver Test Sonuçları.xlsx
+++ b/Project/3501/Furkan/IMMD Production/Gate Driver Test Sonuçları.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="228">
   <si>
     <t>Test Edilecek Birim</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>Opamp tasarımı düzeltilecek</t>
+  </si>
+  <si>
+    <t>LED'lere yeni renkler eklenecek (şematik)</t>
+  </si>
+  <si>
+    <t>Diyotlara yeni paket (SOT23-3 olacak)</t>
   </si>
 </sst>
 </file>
@@ -814,10 +820,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Kötü" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -834,21 +855,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -883,7 +889,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2217,7 +2223,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3518,7 +3523,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:G109" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:G109" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:G109"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No"/>
@@ -3534,17 +3539,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:F42" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:F42"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Akım"/>
-    <tableColumn id="6" name="Input Voltage(mV)" dataDxfId="5">
+    <tableColumn id="6" name="Input Voltage(mV)" dataDxfId="4">
       <calculatedColumnFormula>A2*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Voutp" dataDxfId="4"/>
-    <tableColumn id="3" name="Voutn" dataDxfId="3"/>
-    <tableColumn id="4" name="Diff. Amp. Out" dataDxfId="2"/>
-    <tableColumn id="5" name="Expected Diff. Amp. Out" dataDxfId="1">
+    <tableColumn id="2" name="Voutp" dataDxfId="3"/>
+    <tableColumn id="3" name="Voutn" dataDxfId="2"/>
+    <tableColumn id="4" name="Diff. Amp. Out" dataDxfId="1"/>
+    <tableColumn id="5" name="Expected Diff. Amp. Out" dataDxfId="0">
       <calculatedColumnFormula>2*(Table1[[#This Row],[Voutn]]-Table1[[#This Row],[Voutp]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3553,7 +3558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3820,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,6 +4527,9 @@
       <c r="G32" t="s">
         <v>192</v>
       </c>
+      <c r="H32" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -4754,6 +4762,9 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
         <v>199</v>
+      </c>
+      <c r="H42" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">

--- a/Project/3501/Furkan/IMMD Production/Gate Driver Test Sonuçları.xlsx
+++ b/Project/3501/Furkan/IMMD Production/Gate Driver Test Sonuçları.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="229">
   <si>
     <t>Test Edilecek Birim</t>
   </si>
@@ -695,9 +695,6 @@
     <t>Ferrite beadlerin lehim alanı çok ufak</t>
   </si>
   <si>
-    <t>Input aralığı daha verimli kullanılacak (8mohm seçildi)</t>
-  </si>
-  <si>
     <t>Yüksüz operasyonda en çok ısınan birim: 75C</t>
   </si>
   <si>
@@ -708,6 +705,12 @@
   </si>
   <si>
     <t>Diyotlara yeni paket (SOT23-3 olacak)</t>
+  </si>
+  <si>
+    <t>Gerek duyulmadı</t>
+  </si>
+  <si>
+    <t>Yapcak bişe yok</t>
   </si>
 </sst>
 </file>
@@ -3823,10 +3826,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,6 +3842,7 @@
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4179,7 +4183,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4458,8 +4462,11 @@
       <c r="H29" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4482,7 +4489,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4528,10 +4535,13 @@
         <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="I32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4646,7 +4656,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4692,10 +4702,10 @@
         <v>198</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>42</v>
       </c>
@@ -4715,11 +4725,8 @@
       <c r="G40" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43</v>
       </c>
@@ -4740,10 +4747,13 @@
         <v>199</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44</v>
       </c>
@@ -4764,10 +4774,13 @@
         <v>199</v>
       </c>
       <c r="H42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="I42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45</v>
       </c>
@@ -4788,7 +4801,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>46</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>47</v>
       </c>
@@ -4830,7 +4843,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>48</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>49</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>50</v>
       </c>
@@ -5581,7 +5594,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>83</v>
       </c>
@@ -5604,7 +5617,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>84</v>
       </c>
@@ -5629,8 +5642,11 @@
       <c r="H82" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>85</v>
       </c>
@@ -5653,7 +5669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>86</v>
       </c>
@@ -5676,7 +5692,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>87</v>
       </c>
@@ -5699,7 +5715,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>88</v>
       </c>
@@ -5722,7 +5738,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>89</v>
       </c>
@@ -5745,7 +5761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>90</v>
       </c>
@@ -5768,7 +5784,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>91</v>
       </c>
@@ -5791,7 +5807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>92</v>
       </c>
@@ -5814,7 +5830,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>93</v>
       </c>
@@ -5837,7 +5853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>94</v>
       </c>
@@ -5860,7 +5876,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>95</v>
       </c>
@@ -5883,7 +5899,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>96</v>
       </c>
@@ -5906,7 +5922,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>97</v>
       </c>
@@ -5929,7 +5945,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>98</v>
       </c>
